--- a/Finanças/Finanças.xlsx
+++ b/Finanças/Finanças.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.camara\Desktop\PowerBI\Power BI\Finanças\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.camara\Desktop\IT-ONE Pedro Camara\GitHub\PowerBI\Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E26579-86E1-464C-8450-D7F76DCAA71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B39AE7-5D70-4517-9204-BB01400294E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36630" yWindow="315" windowWidth="7875" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Despesa" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="67">
   <si>
     <t>Cartão Crédito</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Claudinho Bar</t>
+  </si>
+  <si>
+    <t>Superluna</t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -776,7 +779,7 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1406,7 +1409,30 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="6">
+        <v>17.34</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44970</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
